--- a/Module2Homework-JULY/JulyConditionalHW.xlsx
+++ b/Module2Homework-JULY/JulyConditionalHW.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\edxtake2module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferryto\Documents\GitHub\DAT222x\Module2Homework-JULY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <r>
       <t>1.</t>
@@ -112,12 +112,18 @@
       </rPr>
       <t xml:space="preserve"> ball is blue, what is the chance the first ball is blue?</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">P(viewer) = 0.1 
+P(viewer &amp; women) = 0.08
+P(men) = 0.5
+P(men|viewer) = 0.05 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -456,11 +462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C8:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -501,11 +507,13 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="3:15" ht="57.5">
+    <row r="10" spans="3:15" ht="58">
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -521,6 +529,10 @@
     <row r="11" spans="3:15" ht="67.5" customHeight="1">
       <c r="C11" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="D11">
+        <f>0.6 + 5/9</f>
+        <v>1.1555555555555554</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>

--- a/Module2Homework-JULY/JulyConditionalHW.xlsx
+++ b/Module2Homework-JULY/JulyConditionalHW.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <r>
       <t>1.</t>
@@ -114,10 +114,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">P(viewer) = 0.1 
-P(viewer &amp; women) = 0.08
-P(men) = 0.5
-P(men|viewer) = 0.05 </t>
+    <t>0.05/0.1</t>
+  </si>
+  <si>
+    <t>P (win at least once) = 1 - P(never win) = 1 - (37/38)^25 = 0.49</t>
+  </si>
+  <si>
+    <t>B = Bachelor viewer, 
+M = Man, W = Woman. 
+P(M) = P(W) = .5, 
+P(B) = .1, 
+P(W|B) = .8, 
+P(B AND W) = P(B) * P(W|B) = .08 SO P(B|W) = .08/.5 = .16</t>
   </si>
 </sst>
 </file>
@@ -465,14 +473,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C8:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="52.54296875" customWidth="1"/>
-    <col min="4" max="4" width="43.54296875" customWidth="1"/>
+    <col min="4" max="4" width="53.54296875" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="3:15" ht="66" customHeight="1">
@@ -494,7 +504,9 @@
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -507,14 +519,17 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="3:15" ht="58">
+    <row r="10" spans="3:15" ht="87">
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <f>0.08/0.5</f>
+        <v>0.16</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -534,7 +549,9 @@
         <f>0.6 + 5/9</f>
         <v>1.1555555555555554</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
